--- a/SchoolManager/bin/Release/netcoreapp3.1/Programa-2018-2019-II-srok_myVersion.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/Programa-2018-2019-II-srok_myVersion.xlsx
@@ -170,78 +170,78 @@
     <t>0</t>
   </si>
   <si>
+    <t>5 клас</t>
+  </si>
+  <si>
+    <t>8г</t>
+  </si>
+  <si>
+    <t>7 клас</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>12б</t>
+  </si>
+  <si>
+    <t>9г</t>
+  </si>
+  <si>
+    <t>9д</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12в</t>
+  </si>
+  <si>
     <t>10д</t>
   </si>
   <si>
-    <t>8г</t>
-  </si>
-  <si>
-    <t>7 клас</t>
+    <t>11в</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11г</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>12а</t>
+  </si>
+  <si>
+    <t>8д</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>12д</t>
+  </si>
+  <si>
+    <t>8б</t>
   </si>
   <si>
     <t>8в</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
-    <t>9г</t>
-  </si>
-  <si>
-    <t>9д</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12а</t>
-  </si>
-  <si>
-    <t>11в</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11г</t>
+    <t>10г</t>
   </si>
   <si>
     <t>11д</t>
   </si>
   <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>12в</t>
-  </si>
-  <si>
-    <t>8д</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>12д</t>
-  </si>
-  <si>
-    <t>5 клас</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>10г</t>
-  </si>
-  <si>
     <t>11а</t>
   </si>
   <si>
@@ -251,13 +251,31 @@
     <t>12г</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>6 клас</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>10б</t>
   </si>
   <si>
     <t>4</t>
@@ -266,30 +284,12 @@
     <t>6</t>
   </si>
   <si>
-    <t>10</t>
+    <t>5</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -308,36 +308,36 @@
     <t>31</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -353,31 +353,31 @@
     <t>20</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>33</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>42</t>
@@ -679,37 +679,37 @@
       <c r="D2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>63</v>
       </c>
       <c r="U2" s="0" t="s">
@@ -721,41 +721,41 @@
       <c r="W2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AD2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AF2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AI2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AL2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="0" t="s">
+      <c r="AM2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="0" t="s">
+      <c r="AN2" s="0" t="s">
         <v>75</v>
       </c>
       <c r="AQ2" s="0" t="s">
         <v>76</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT2" s="0" t="s">
         <v>77</v>
@@ -772,40 +772,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>62</v>
+      <c r="T3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>65</v>
@@ -813,53 +813,53 @@
       <c r="W3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="AA3" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="AD3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="AL3" s="0" t="s">
         <v>73</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AQ3" s="0" t="s">
         <v>76</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT3" s="0" t="s">
         <v>77</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV3" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AX3" s="0" t="s">
         <v>65</v>
@@ -873,100 +873,97 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="W4" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X4" s="0" t="s">
         <v>77</v>
       </c>
       <c r="Z4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="0" t="s">
+      <c r="AM4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL4" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT4" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="AX4" s="0" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -974,132 +971,132 @@
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="W5" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X5" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="Z5" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="AA5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP5" s="0" t="s">
+      <c r="AR5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS5" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="AQ5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX5" s="0" t="s">
-        <v>85</v>
+      <c r="AV5" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="M6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>90</v>
@@ -1108,7 +1105,7 @@
         <v>90</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="W6" s="0" t="s">
         <v>91</v>
@@ -1116,11 +1113,11 @@
       <c r="Y6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Z6" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="AA6" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="AD6" s="0" t="s">
         <v>92</v>
@@ -1129,72 +1126,72 @@
         <v>92</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL6" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="AM6" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="AN6" s="0" t="s">
-        <v>67</v>
+      <c r="AO6" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU6" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="AV6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AW6" s="0" t="s">
-        <v>72</v>
+      <c r="AX6" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="N7" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>90</v>
@@ -1202,14 +1199,8 @@
       <c r="Q7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="V7" s="0" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="W7" s="0" t="s">
         <v>91</v>
@@ -1218,7 +1209,10 @@
         <v>77</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="AD7" s="0" t="s">
         <v>92</v>
@@ -1227,40 +1221,46 @@
         <v>92</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL7" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="AM7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AN7" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="AP7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AQ7" s="0" t="s">
+      <c r="AR7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV7" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AR7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV7" s="0" t="s">
-        <v>54</v>
+      <c r="AX7" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>54</v>
@@ -1288,34 +1288,40 @@
         <v>53</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>52</v>
+      <c r="U10" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>95</v>
@@ -1324,52 +1330,46 @@
         <v>95</v>
       </c>
       <c r="X10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA10" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="Y10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="AC10" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI10" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="AK10" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="AL10" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR10" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AS10" s="0" t="s">
         <v>96</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AX10" s="0" t="s">
         <v>95</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>54</v>
@@ -1392,34 +1392,34 @@
         <v>53</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="J11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="Q11" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="U11" s="0" t="s">
         <v>77</v>
@@ -1431,52 +1431,49 @@
         <v>95</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB11" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF11" s="0" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI11" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO11" s="0" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="AR11" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="AS11" s="0" t="s">
         <v>97</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AX11" s="0" t="s">
         <v>95</v>
@@ -1487,103 +1484,100 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="Q12" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="T12" s="0" t="s">
         <v>93</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z12" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="Y12" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="AA12" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AM12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO12" s="0" t="s">
+      <c r="AT12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX12" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="AQ12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS12" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX12" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -1597,198 +1591,198 @@
         <v>54</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T13" s="0" t="s">
         <v>93</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="AB13" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AC13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AD13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF13" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG13" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="AH13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK13" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AI13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL13" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="AM13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="AO13" s="0" t="s">
+      <c r="AQ13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX13" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="AT13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX13" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>104</v>
       </c>
+      <c r="J14" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="K14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="0" t="s">
+      <c r="AD14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB14" s="0" t="s">
+      <c r="AG14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AC14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH14" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI14" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="AK14" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL14" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="AO14" s="0" t="s">
+        <v>104</v>
+      </c>
       <c r="AP14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT14" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AQ14" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT14" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="AW14" s="0" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1796,100 +1790,100 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>87</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>104</v>
       </c>
+      <c r="J15" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="K15" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="AA15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB15" s="0" t="s">
+      <c r="AC15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI15" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="AC15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD15" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE15" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI15" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="AL15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AP15" s="0" t="s">
-        <v>58</v>
+      <c r="AO15" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV15" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="AU15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1897,13 +1891,22 @@
         <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>54</v>
@@ -1920,40 +1923,37 @@
         <v>53</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>108</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="T18" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="V18" s="0" t="s">
         <v>109</v>
@@ -1964,14 +1964,20 @@
       <c r="X18" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="Y18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="AA18" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AB18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="AC18" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="AD18" s="0" t="s">
         <v>108</v>
@@ -1979,20 +1985,20 @@
       <c r="AE18" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AF18" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="AH18" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AM18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO18" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="AO18" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AQ18" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="AR18" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="AS18" s="0" t="s">
         <v>110</v>
@@ -2000,11 +2006,8 @@
       <c r="AU18" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AV18" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="AW18" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AX18" s="0" t="s">
         <v>109</v>
@@ -2015,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>54</v>
@@ -2024,10 +2027,7 @@
         <v>53</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>111</v>
@@ -2036,31 +2036,25 @@
         <v>111</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="U19" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="V19" s="0" t="s">
         <v>109</v>
@@ -2068,32 +2062,41 @@
       <c r="W19" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Z19" s="0" t="s">
+      <c r="X19" s="0" t="s">
         <v>77</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="0" t="s">
         <v>78</v>
       </c>
+      <c r="AD19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="AG19" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="AP19" s="0" t="s">
         <v>66</v>
@@ -2103,6 +2106,9 @@
       </c>
       <c r="AU19" s="0" t="s">
         <v>109</v>
+      </c>
+      <c r="AV19" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="AX19" s="0" t="s">
         <v>109</v>
@@ -2113,97 +2119,100 @@
         <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="L20" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z20" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Z20" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="AA20" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AC20" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AK20" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM20" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="AN20" s="0" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AO20" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="AP20" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="AQ20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU20" s="0" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AV20" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="AX20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY20" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -2211,97 +2220,97 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="M21" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="W21" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="Y21" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="Z21" s="0" t="s">
         <v>76</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AC21" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="AD21" s="0" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AF21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="AG21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AH21" s="0" t="s">
+      <c r="AM21" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="AM21" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="AN21" s="0" t="s">
         <v>64</v>
       </c>
       <c r="AO21" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AP21" s="0" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AQ21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AR21" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV21" s="0" t="s">
-        <v>75</v>
+      <c r="AW21" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="AX21" s="0" t="s">
         <v>113</v>
@@ -2311,53 +2320,59 @@
       <c r="A22" s="2">
         <v>5</v>
       </c>
+      <c r="B22" s="0" t="s">
+        <v>77</v>
+      </c>
       <c r="D22" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T22" s="0" t="s">
         <v>76</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB22" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD22" s="0" t="s">
         <v>114</v>
@@ -2366,81 +2381,69 @@
         <v>114</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AG22" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AL22" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM22" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="AN22" s="0" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AO22" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AP22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="AQ22" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AT22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="AU22" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AV22" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="AX22" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY22" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" s="0" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="R23" s="0" t="s">
         <v>78</v>
@@ -2449,61 +2452,64 @@
         <v>76</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="W23" s="0" t="s">
         <v>115</v>
       </c>
       <c r="Z23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="AA23" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD23" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE23" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI23" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN23" s="0" t="s">
+      <c r="AT23" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AO23" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR23" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT23" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="AV23" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW23" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AX23" s="0" t="s">
         <v>115</v>
@@ -2513,74 +2519,68 @@
       <c r="A24" s="2">
         <v>7</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>75</v>
+      <c r="G24" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="0" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="W24" s="0" t="s">
         <v>115</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE24" s="0" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM24" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN24" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AO24" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AP24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AQ24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR24" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="AS24" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AV24" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AX24" s="0" t="s">
         <v>115</v>
@@ -2591,16 +2591,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>116</v>
@@ -2608,62 +2608,62 @@
       <c r="I26" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="K26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="0" t="s">
+      <c r="T26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC26" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="T26" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y26" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA26" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC26" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="AE26" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="AF26" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="AG26" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH26" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="AK26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AM26" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AO26" s="0" t="s">
         <v>117</v>
@@ -2672,13 +2672,13 @@
         <v>76</v>
       </c>
       <c r="AR26" s="0" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="AT26" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AU26" s="0" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AW26" s="0" t="s">
         <v>78</v>
@@ -2689,19 +2689,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>116</v>
@@ -2710,76 +2710,76 @@
         <v>117</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>57</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>60</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="Y27" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AA27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB27" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AB27" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="AC27" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AE27" s="0" t="s">
         <v>116</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG27" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL27" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AM27" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AN27" s="0" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="AO27" s="0" t="s">
         <v>117</v>
       </c>
       <c r="AQ27" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU27" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="AV27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW27" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -2787,16 +2787,19 @@
         <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>89</v>
+      <c r="E28" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>111</v>
@@ -2804,77 +2807,74 @@
       <c r="I28" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="L28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>73</v>
+      <c r="M28" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Q28" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="R28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="V28" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="T28" s="0" t="s">
+      <c r="Y28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF28" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="AG28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL28" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="X28" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z28" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB28" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE28" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF28" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG28" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH28" s="0" t="s">
+      <c r="AM28" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AI28" s="0" t="s">
+      <c r="AN28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR28" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AM28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP28" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR28" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT28" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="AV28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW28" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -2882,150 +2882,147 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="Q29" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="R29" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="T29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z29" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="U29" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y29" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z29" s="0" t="s">
+      <c r="AB29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK29" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AA29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB29" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH29" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK29" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="AL29" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AM29" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AN29" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AO29" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP29" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AQ29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV29" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AR29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV29" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="AW29" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>5</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="0" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="K30" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="M30" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y30" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="U30" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z30" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="AA30" s="0" t="s">
         <v>60</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD30" s="0" t="s">
         <v>114</v>
@@ -3034,156 +3031,171 @@
         <v>114</v>
       </c>
       <c r="AF30" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="AG30" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AH30" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK30" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="AL30" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="AM30" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AN30" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO30" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="AP30" s="0" t="s">
-        <v>66</v>
+      <c r="AQ30" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="AR30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT30" s="0" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="AS30" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="AV30" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="AW30" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>6</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="D31" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E31" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="F31" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>121</v>
       </c>
+      <c r="J31" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="K31" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="U31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA31" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="V31" s="0" t="s">
+      <c r="AB31" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="X31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" s="0" t="s">
+      <c r="AC31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD31" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE31" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF31" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="Z31" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC31" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG31" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH31" s="0" t="s">
+      <c r="AK31" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AK31" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="AN31" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AO31" s="0" t="s">
         <v>121</v>
       </c>
       <c r="AP31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ31" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AR31" s="0" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AS31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW31" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AV31" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW31" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX31" s="0" t="s">
-        <v>75</v>
+      <c r="AY31" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>52</v>
+      <c r="D32" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="R32" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="T32" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="U32" s="0" t="s">
         <v>76</v>
       </c>
@@ -3191,58 +3203,46 @@
         <v>66</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="Z32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA32" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD32" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE32" s="0" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AF32" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="AG32" s="0" t="s">
-        <v>70</v>
+      <c r="AH32" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AK32" s="0" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AN32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP32" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV32" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AP32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ32" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR32" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV32" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="AW32" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AX32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY32" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -3250,94 +3250,94 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="J34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="O34" s="0" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>123</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="V34" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="W34" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="X34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="Y34" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="AA34" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE34" s="0" t="s">
         <v>123</v>
       </c>
       <c r="AF34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="AH34" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI34" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="AM34" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AO34" s="0" t="s">
         <v>122</v>
       </c>
       <c r="AP34" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AQ34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR34" s="0" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AT34" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU34" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW34" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="AV34" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW34" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35">
@@ -3345,19 +3345,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>124</v>
@@ -3365,32 +3365,41 @@
       <c r="J35" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="K35" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="L35" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="X35" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="Y35" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="AA35" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AC35" s="0" t="s">
         <v>78</v>
@@ -3399,40 +3408,31 @@
         <v>125</v>
       </c>
       <c r="AF35" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG35" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI35" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AI35" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL35" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="AM35" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AO35" s="0" t="s">
         <v>124</v>
       </c>
       <c r="AP35" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AQ35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR35" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AT35" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU35" s="0" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -3440,91 +3440,94 @@
         <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>117</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O36" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="U36" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X36" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Y36" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="AA36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC36" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AB36" s="0" t="s">
+      <c r="AE36" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG36" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AC36" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG36" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="AH36" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI36" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK36" s="0" t="s">
         <v>53</v>
       </c>
       <c r="AM36" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN36" s="0" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AO36" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="AR36" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="AT36" s="0" t="s">
         <v>64</v>
       </c>
       <c r="AU36" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="AW36" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -3532,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>54</v>
@@ -3541,85 +3544,82 @@
         <v>53</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="K37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="N37" s="0" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" s="0" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="V37" s="0" t="s">
         <v>78</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="X37" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="Y37" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="Z37" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG37" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="AE37" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG37" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="AH37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN37" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="AI37" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK37" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL37" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM37" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN37" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="AO37" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AQ37" s="0" t="s">
-        <v>63</v>
+      <c r="AP37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU37" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="AV37" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="AW37" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -3630,85 +3630,88 @@
         <v>66</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E38" s="0" t="s">
+        <v>63</v>
+      </c>
       <c r="F38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="U38" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" s="0" t="s">
+      <c r="X38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA38" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC38" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="O38" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="R38" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="U38" s="0" t="s">
+      <c r="AD38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG38" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="W38" s="0" t="s">
+      <c r="AN38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP38" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ38" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR38" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT38" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="X38" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z38" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB38" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF38" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG38" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK38" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL38" s="0" t="s">
+      <c r="AU38" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AN38" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP38" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ38" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS38" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="AV38" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW38" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
@@ -3718,178 +3721,175 @@
       <c r="D39" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>88</v>
+      <c r="F39" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y39" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI39" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK39" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL39" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ39" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="0" t="s">
+      <c r="AR39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV39" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U39" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="X39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39" s="0" t="s">
+      <c r="AW39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX39" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="Z39" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK39" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP39" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ39" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR39" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS39" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT39" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU39" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV39" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY39" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <v>7</v>
       </c>
+      <c r="B40" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="D40" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB40" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK40" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL40" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40" s="0" t="s">
+      <c r="AM40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP40" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ40" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS40" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU40" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="AV40" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R40" s="0" t="s">
+      <c r="AW40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY40" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="T40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U40" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="X40" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y40" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z40" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB40" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD40" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE40" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF40" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI40" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK40" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL40" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM40" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN40" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP40" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ40" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR40" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS40" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU40" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV40" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW40" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX40" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/SchoolManager/bin/Release/netcoreapp3.1/Programa-2018-2019-II-srok_myVersion.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/Programa-2018-2019-II-srok_myVersion.xlsx
@@ -179,18 +179,24 @@
     <t>7 клас</t>
   </si>
   <si>
+    <t>8в</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>12б</t>
+  </si>
+  <si>
+    <t>10д</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
     <t>9в</t>
   </si>
   <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
     <t>9г</t>
   </si>
   <si>
@@ -203,15 +209,12 @@
     <t>12в</t>
   </si>
   <si>
-    <t>10д</t>
+    <t>12</t>
   </si>
   <si>
     <t>11в</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>11г</t>
   </si>
   <si>
@@ -227,30 +230,27 @@
     <t>19</t>
   </si>
   <si>
+    <t>11д</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>10г</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>12г</t>
+  </si>
+  <si>
     <t>12д</t>
   </si>
   <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>10г</t>
-  </si>
-  <si>
-    <t>11д</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>12г</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -260,36 +260,36 @@
     <t>6 клас</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -305,39 +305,39 @@
     <t>40</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -353,31 +353,31 @@
     <t>20</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>33</t>
   </si>
   <si>
     <t>42</t>
@@ -679,40 +679,40 @@
       <c r="D2" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="H2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="0" t="s">
         <v>64</v>
       </c>
       <c r="V2" s="0" t="s">
@@ -721,46 +721,46 @@
       <c r="W2" s="0" t="s">
         <v>65</v>
       </c>
+      <c r="Y2" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="Z2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="0" t="s">
         <v>73</v>
       </c>
       <c r="AM2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="0" t="s">
+      <c r="AQ2" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AQ2" s="0" t="s">
+      <c r="AS2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AS2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT2" s="0" t="s">
+      <c r="AU2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="0" t="s">
+      <c r="AW2" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AX2" s="0" t="s">
@@ -772,40 +772,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="0" t="s">
         <v>79</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>65</v>
@@ -813,26 +813,32 @@
       <c r="W3" s="0" t="s">
         <v>65</v>
       </c>
+      <c r="Y3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="AA3" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AG3" s="0" t="s">
         <v>52</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" s="0" t="s">
         <v>79</v>
@@ -840,130 +846,127 @@
       <c r="AK3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="AM3" s="0" t="s">
         <v>74</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AS3" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU3" s="0" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AX3" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="AY3" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="C4" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>54</v>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>78</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="AL4" s="0" t="s">
         <v>52</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT4" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AQ4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW4" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="AX4" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -973,130 +976,124 @@
       <c r="C5" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>53</v>
+      </c>
       <c r="F5" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AL5" s="0" t="s">
         <v>52</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT5" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AP5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>74</v>
+      <c r="AX5" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>90</v>
@@ -1104,20 +1101,23 @@
       <c r="Q6" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="U6" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="V6" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="W6" s="0" t="s">
         <v>91</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AD6" s="0" t="s">
         <v>92</v>
@@ -1126,43 +1126,43 @@
         <v>92</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="AM6" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="AO6" s="0" t="s">
-        <v>89</v>
+      <c r="AN6" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS6" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="AV6" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AW6" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AX6" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1170,28 +1170,34 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>81</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>90</v>
@@ -1200,19 +1206,19 @@
         <v>90</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="W7" s="0" t="s">
         <v>91</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AD7" s="0" t="s">
         <v>92</v>
@@ -1221,28 +1227,28 @@
         <v>92</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="AM7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AN7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="AO7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ7" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="AR7" s="0" t="s">
         <v>54</v>
@@ -1251,16 +1257,10 @@
         <v>52</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV7" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="AV7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX7" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>54</v>
@@ -1288,40 +1288,37 @@
         <v>53</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="Q10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>95</v>
@@ -1330,46 +1327,49 @@
         <v>95</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AF10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ10" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="AS10" s="0" t="s">
         <v>96</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AX10" s="0" t="s">
         <v>95</v>
@@ -1392,37 +1392,37 @@
         <v>53</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>97</v>
       </c>
+      <c r="I11" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="J11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P11" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>95</v>
@@ -1431,49 +1431,52 @@
         <v>95</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH11" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AC11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH11" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="AI11" s="0" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ11" s="0" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS11" s="0" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AX11" s="0" t="s">
         <v>95</v>
@@ -1483,101 +1486,104 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D12" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>77</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="AA12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="0" t="s">
+      <c r="AD12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF12" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AC12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD12" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE12" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF12" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="AG12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH12" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AI12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AM12" s="0" t="s">
-        <v>81</v>
+      <c r="AL12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="AS12" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="AT12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV12" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -1588,201 +1594,201 @@
         <v>53</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="0" t="s">
+      <c r="Z13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC13" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC13" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="AD13" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH13" s="0" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="AI13" s="0" t="s">
         <v>74</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM13" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AN13" s="0" t="s">
+      <c r="AL13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="AQ13" s="0" t="s">
+      <c r="AS13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY13" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="AS13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX13" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>5</v>
       </c>
+      <c r="B14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="O14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="AA14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF14" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AB14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF14" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="AG14" s="0" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK14" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AL14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AO14" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP14" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="AQ14" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS14" s="0" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1790,28 +1796,28 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="L15" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>90</v>
@@ -1819,94 +1825,85 @@
       <c r="Q15" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="R15" s="0" t="s">
+        <v>78</v>
+      </c>
       <c r="T15" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI15" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="V15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF15" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI15" s="0" t="s">
-        <v>63</v>
+      <c r="AK15" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="AL15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="AO15" s="0" t="s">
-        <v>104</v>
+      <c r="AP15" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AR15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AS15" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="AT15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW15" s="0" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>107</v>
+      <c r="F16" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ16" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO16" s="0" t="s">
-        <v>107</v>
+        <v>68</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1914,46 +1911,52 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>108</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="M18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="0" t="s">
         <v>68</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>74</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V18" s="0" t="s">
         <v>109</v>
@@ -1962,22 +1965,13 @@
         <v>109</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="Z18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="AD18" s="0" t="s">
         <v>108</v>
@@ -1985,29 +1979,32 @@
       <c r="AE18" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AH18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM18" s="0" t="s">
-        <v>60</v>
+      <c r="AF18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ18" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AS18" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="AT18" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="AU18" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AW18" s="0" t="s">
-        <v>71</v>
+      <c r="AV18" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="AX18" s="0" t="s">
         <v>109</v>
@@ -2018,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>54</v>
@@ -2027,7 +2024,10 @@
         <v>53</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>111</v>
@@ -2036,25 +2036,31 @@
         <v>111</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="M19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="P19" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="U19" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="V19" s="0" t="s">
         <v>109</v>
@@ -2063,52 +2069,40 @@
         <v>109</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM19" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AP19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT19" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="AQ19" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="AU19" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="AV19" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="AX19" s="0" t="s">
         <v>109</v>
@@ -2118,17 +2112,17 @@
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="C20" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="E20" s="0" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>81</v>
@@ -2136,83 +2130,83 @@
       <c r="H20" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="J20" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="K20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="W20" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="X20" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="Z20" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AC20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AD20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF20" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="AG20" s="0" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="AH20" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="AN20" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AO20" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="AP20" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AV20" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="AW20" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="AX20" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AY20" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -2220,97 +2214,97 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="F21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="W21" s="0" t="s">
         <v>113</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA21" s="0" t="s">
         <v>59</v>
       </c>
       <c r="AB21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC21" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG21" s="0" t="s">
         <v>52</v>
       </c>
       <c r="AH21" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AK21" s="0" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AN21" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AO21" s="0" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AP21" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AQ21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR21" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AU21" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AV21" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW21" s="0" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AX21" s="0" t="s">
         <v>113</v>
@@ -2321,58 +2315,52 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z22" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="AA22" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC22" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="AC22" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="AD22" s="0" t="s">
         <v>114</v>
@@ -2381,135 +2369,138 @@
         <v>114</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AG22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="AK22" s="0" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AM22" s="0" t="s">
         <v>74</v>
       </c>
       <c r="AN22" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AO22" s="0" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AP22" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AQ22" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT22" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="AS22" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="AU22" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AV22" s="0" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>6</v>
       </c>
+      <c r="B23" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="W23" s="0" t="s">
         <v>115</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB23" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AM23" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AN23" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AO23" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AP23" s="0" t="s">
         <v>60</v>
       </c>
       <c r="AQ23" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AR23" s="0" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AS23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT23" s="0" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV23" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="AX23" s="0" t="s">
         <v>115</v>
@@ -2519,71 +2510,80 @@
       <c r="A24" s="2">
         <v>7</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="I24" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="W24" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="X24" s="0" t="s">
+      <c r="Y24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA24" s="0" t="s">
+      <c r="AR24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV24" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="AC24" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG24" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO24" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV24" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="AX24" s="0" t="s">
         <v>115</v>
+      </c>
+      <c r="AY24" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -2594,13 +2594,13 @@
         <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>116</v>
@@ -2608,80 +2608,80 @@
       <c r="I26" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>78</v>
+      </c>
       <c r="K26" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="M26" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="N26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="U26" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="X26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC26" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="Y26" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z26" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA26" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB26" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC26" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="AE26" s="0" t="s">
         <v>116</v>
       </c>
       <c r="AG26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL26" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI26" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="AM26" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AO26" s="0" t="s">
         <v>117</v>
       </c>
       <c r="AQ26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR26" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT26" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU26" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AW26" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -2689,19 +2689,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="0" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>116</v>
@@ -2709,77 +2706,80 @@
       <c r="I27" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="K27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC27" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z27" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB27" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC27" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="AE27" s="0" t="s">
         <v>116</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL27" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="AH27" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="AM27" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AN27" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AO27" s="0" t="s">
         <v>117</v>
       </c>
       <c r="AQ27" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="AU27" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="AV27" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW27" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>54</v>
@@ -2796,7 +2796,10 @@
         <v>53</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>81</v>
@@ -2807,74 +2810,71 @@
       <c r="I28" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="K28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="R28" s="0" t="s">
+      <c r="Q28" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="T28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U28" s="0" t="s">
+      <c r="AM28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR28" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="V28" s="0" t="s">
+      <c r="AU28" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="Y28" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD28" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE28" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF28" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG28" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH28" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM28" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ28" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR28" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV28" s="0" t="s">
-        <v>71</v>
+      <c r="AW28" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2887,106 +2887,103 @@
       <c r="C29" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>86</v>
+      <c r="D29" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="L29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="O29" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="R29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="V29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z29" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC29" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE29" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF29" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH29" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="AK29" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM29" s="0" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AN29" s="0" t="s">
         <v>93</v>
       </c>
       <c r="AO29" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP29" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AQ29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW29" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="AR29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV29" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW29" s="0" t="s">
-        <v>52</v>
+      <c r="AX29" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>5</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>120</v>
@@ -2997,131 +2994,125 @@
       <c r="M30" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="N30" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="O30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="R30" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="T30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="X30" s="0" t="s">
+      <c r="Z30" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Y30" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="AA30" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AB30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC30" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AC30" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD30" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE30" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="AF30" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH30" s="0" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="AK30" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL30" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AM30" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AN30" s="0" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AO30" s="0" t="s">
         <v>120</v>
       </c>
+      <c r="AP30" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="AQ30" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AR30" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS30" s="0" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="AV30" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="AW30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX30" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>6</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="B31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="N31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="R31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y31" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="U31" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="Z31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA31" s="0" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AB31" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AC31" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="AD31" s="0" t="s">
         <v>114</v>
       </c>
@@ -3129,120 +3120,129 @@
         <v>114</v>
       </c>
       <c r="AF31" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="AG31" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="AK31" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN31" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO31" s="0" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="AP31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY31" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="AR31" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS31" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT31" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV31" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW31" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY31" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>53</v>
+      <c r="E32" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T32" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="V32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="V32" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z32" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="AB32" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD32" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE32" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK32" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN32" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR32" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="AH32" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK32" s="0" t="s">
+      <c r="AS32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV32" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW32" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="AN32" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR32" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU32" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV32" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX32" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -3250,61 +3250,58 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>122</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="R34" s="0" t="s">
+      <c r="T34" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="T34" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="U34" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="W34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="X34" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="X34" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="Y34" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="Z34" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="AA34" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AC34" s="0" t="s">
         <v>69</v>
@@ -3313,31 +3310,34 @@
         <v>123</v>
       </c>
       <c r="AF34" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH34" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="AG34" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="AI34" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM34" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="AL34" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AO34" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="AP34" s="0" t="s">
+      <c r="AQ34" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AQ34" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="AT34" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="AU34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV34" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="AW34" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -3345,94 +3345,94 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="0" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>124</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="M35" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="N35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T35" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="T35" s="0" t="s">
+      <c r="U35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y35" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="U35" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="V35" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="X35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y35" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA35" s="0" t="s">
-        <v>54</v>
+      <c r="Z35" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AE35" s="0" t="s">
         <v>125</v>
       </c>
       <c r="AF35" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG35" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH35" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI35" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AM35" s="0" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="AN35" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="AO35" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="AP35" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ35" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="AT35" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="AW35" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -3440,94 +3440,91 @@
         <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>67</v>
+      <c r="O36" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="T36" s="0" t="s">
-        <v>76</v>
+      <c r="U36" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="X36" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Y36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z36" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA36" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AE36" s="0" t="s">
         <v>126</v>
       </c>
       <c r="AG36" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH36" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AI36" s="0" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AK36" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="AL36" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="AM36" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO36" s="0" t="s">
-        <v>117</v>
+        <v>62</v>
+      </c>
+      <c r="AP36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ36" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="AR36" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AT36" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV36" s="0" t="s">
         <v>78</v>
       </c>
       <c r="AW36" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -3535,91 +3532,94 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>56</v>
+      <c r="J37" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>59</v>
       </c>
       <c r="N37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="R37" s="0" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="X37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y37" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Y37" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z37" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="AA37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB37" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="AD37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE37" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="AG37" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH37" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AI37" s="0" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AK37" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AL37" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="AN37" s="0" t="s">
-        <v>87</v>
+      <c r="AM37" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="AO37" s="0" t="s">
         <v>117</v>
       </c>
       <c r="AP37" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="AQ37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT37" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AU37" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AV37" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW37" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -3627,177 +3627,177 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="K38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="M38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y38" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB38" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC38" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="R38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="U38" s="0" t="s">
+      <c r="AF38" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI38" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="X38" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z38" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA38" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC38" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG38" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="AK38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM38" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AL38" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="AN38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AO38" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="AP38" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AQ38" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR38" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AS38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT38" s="0" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AU38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV38" s="0" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <v>6</v>
       </c>
+      <c r="C39" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="D39" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="E39" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="F39" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="R39" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="T39" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="U39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH39" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="V39" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y39" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z39" s="0" t="s">
+      <c r="AK39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP39" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ39" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="AB39" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC39" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI39" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK39" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL39" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN39" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP39" s="0" t="s">
+      <c r="AR39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS39" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AQ39" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR39" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS39" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT39" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="AU39" s="0" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AV39" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW39" s="0" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="AX39" s="0" t="s">
         <v>74</v>
@@ -3808,67 +3808,67 @@
         <v>7</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K40" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="V40" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="T40" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="U40" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V40" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="Y40" s="0" t="s">
         <v>72</v>
       </c>
       <c r="Z40" s="0" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="AA40" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="AC40" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="AF40" s="0" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="AH40" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="AK40" s="0" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AL40" s="0" t="s">
         <v>53</v>
       </c>
       <c r="AM40" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AN40" s="0" t="s">
         <v>73</v>
       </c>
       <c r="AP40" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AQ40" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AR40" s="0" t="s">
         <v>81</v>
@@ -3880,16 +3880,16 @@
         <v>57</v>
       </c>
       <c r="AV40" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AW40" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AX40" s="0" t="s">
         <v>74</v>
       </c>
       <c r="AY40" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
